--- a/docs/source/recursos/turismo/tabla_def_tur_09mzo_21_v2.xlsx
+++ b/docs/source/recursos/turismo/tabla_def_tur_09mzo_21_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\turismo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F9DB82-5516-4E26-B768-AB88F0C8D099}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EEF639-CA3A-4F83-96B9-D8C2B50CD0C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F29FCC71-4D68-4D0A-A197-72AF44C9C956}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
   <si>
     <t>Sector</t>
   </si>
@@ -228,6 +228,24 @@
   </si>
   <si>
     <t>Cobertura_bio</t>
+  </si>
+  <si>
+    <t>Lagunas costeras, marismas y esteros.</t>
+  </si>
+  <si>
+    <t>Esteros</t>
+  </si>
+  <si>
+    <t>Cenotes</t>
+  </si>
+  <si>
+    <t>Grutas</t>
+  </si>
+  <si>
+    <t>Pozo o estanque natural de agua dulce abastecido por un río subterráneo que se forma  por la erosión de los suelos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cavidad que se forma en las rocas por procesos erosivos, principalmente por disolución causada por el agua de lluvia que se filtra entre rocas calcáreas y las disuelve. </t>
   </si>
 </sst>
 </file>
@@ -237,7 +255,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +284,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -287,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -334,6 +359,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6B64EF-2A17-4A78-9CAF-F88BE012DEF9}">
   <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,22 +1219,45 @@
       <c r="B67" s="6"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="6"/>
+      <c r="A68" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="1"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="6"/>
+      <c r="A69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="6"/>
+      <c r="A70" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="6"/>
+      <c r="A71" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="6"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="6"/>
+      <c r="A72" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="18"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>

--- a/docs/source/recursos/turismo/tabla_def_tur_09mzo_21_v2.xlsx
+++ b/docs/source/recursos/turismo/tabla_def_tur_09mzo_21_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\turismo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EEF639-CA3A-4F83-96B9-D8C2B50CD0C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A657EDC-F6ED-4146-8315-B1FBF9EB95DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F29FCC71-4D68-4D0A-A197-72AF44C9C956}"/>
   </bookViews>
@@ -312,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -360,6 +360,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6B64EF-2A17-4A78-9CAF-F88BE012DEF9}">
   <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,26 +1062,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="19">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B44" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C44" s="19">
         <v>0.2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="13">
-        <v>0.8</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1154,7 +1157,7 @@
       <c r="B56" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="19">
         <v>0.8</v>
       </c>
     </row>
@@ -1165,7 +1168,7 @@
       <c r="B57" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="19">
         <v>0.2</v>
       </c>
     </row>
@@ -1554,8 +1557,8 @@
       <c r="B171" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A27:C32">
-    <sortCondition ref="A27:A32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:C44">
+    <sortCondition descending="1" ref="C43:C44"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
